--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Sele</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.282921990924</v>
+        <v>43.764002</v>
       </c>
       <c r="H2">
-        <v>42.282921990924</v>
+        <v>87.52800400000001</v>
       </c>
       <c r="I2">
-        <v>0.4600313869958126</v>
+        <v>0.4562749783297458</v>
       </c>
       <c r="J2">
-        <v>0.4600313869958126</v>
+        <v>0.3603824858286638</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="N2">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="O2">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P2">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q2">
-        <v>541.1388692597606</v>
+        <v>659.0919970802801</v>
       </c>
       <c r="R2">
-        <v>541.1388692597606</v>
+        <v>2636.36798832112</v>
       </c>
       <c r="S2">
-        <v>0.3361665427897014</v>
+        <v>0.3402498660384169</v>
       </c>
       <c r="T2">
-        <v>0.3361665427897014</v>
+        <v>0.2384271138340364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.282921990924</v>
+        <v>43.764002</v>
       </c>
       <c r="H3">
-        <v>42.282921990924</v>
+        <v>87.52800400000001</v>
       </c>
       <c r="I3">
-        <v>0.4600313869958126</v>
+        <v>0.4562749783297458</v>
       </c>
       <c r="J3">
-        <v>0.4600313869958126</v>
+        <v>0.3603824858286638</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N3">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="O3">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P3">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q3">
-        <v>2.883165081527026</v>
+        <v>4.832129340826667</v>
       </c>
       <c r="R3">
-        <v>2.883165081527026</v>
+        <v>28.99277604496</v>
       </c>
       <c r="S3">
-        <v>0.001791081167528691</v>
+        <v>0.002494540015930911</v>
       </c>
       <c r="T3">
-        <v>0.001791081167528691</v>
+        <v>0.002622040604748237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.282921990924</v>
+        <v>43.764002</v>
       </c>
       <c r="H4">
-        <v>42.282921990924</v>
+        <v>87.52800400000001</v>
       </c>
       <c r="I4">
-        <v>0.4600313869958126</v>
+        <v>0.4562749783297458</v>
       </c>
       <c r="J4">
-        <v>0.4600313869958126</v>
+        <v>0.3603824858286638</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N4">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="O4">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P4">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q4">
-        <v>196.5063433998769</v>
+        <v>2.388420409150001</v>
       </c>
       <c r="R4">
-        <v>196.5063433998769</v>
+        <v>14.3305224549</v>
       </c>
       <c r="S4">
-        <v>0.1220737630385825</v>
+        <v>0.001232998925577492</v>
       </c>
       <c r="T4">
-        <v>0.1220737630385825</v>
+        <v>0.001296019798370985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.2770827323846</v>
+        <v>43.764002</v>
       </c>
       <c r="H5">
-        <v>12.2770827323846</v>
+        <v>87.52800400000001</v>
       </c>
       <c r="I5">
-        <v>0.1335726844718426</v>
+        <v>0.4562749783297458</v>
       </c>
       <c r="J5">
-        <v>0.1335726844718426</v>
+        <v>0.3603824858286638</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.7980480955388</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N5">
-        <v>12.7980480955388</v>
+        <v>14.911546</v>
       </c>
       <c r="O5">
-        <v>0.7307469713860226</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P5">
-        <v>0.7307469713860226</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q5">
-        <v>157.122695281967</v>
+        <v>217.5296429890307</v>
       </c>
       <c r="R5">
-        <v>157.122695281967</v>
+        <v>1305.177857934184</v>
       </c>
       <c r="S5">
-        <v>0.0976078346376998</v>
+        <v>0.1122975733498204</v>
       </c>
       <c r="T5">
-        <v>0.0976078346376998</v>
+        <v>0.1180373115915082</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>12.2770827323846</v>
+        <v>0.08457633333333332</v>
       </c>
       <c r="H6">
-        <v>12.2770827323846</v>
+        <v>0.253729</v>
       </c>
       <c r="I6">
-        <v>0.1335726844718426</v>
+        <v>0.000881776412012686</v>
       </c>
       <c r="J6">
-        <v>0.1335726844718426</v>
+        <v>0.001044688369071241</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0681874606997571</v>
+        <v>15.06014</v>
       </c>
       <c r="N6">
-        <v>0.0681874606997571</v>
+        <v>30.12028</v>
       </c>
       <c r="O6">
-        <v>0.003893389055962381</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P6">
-        <v>0.003893389055962381</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q6">
-        <v>0.8371430963221415</v>
+        <v>1.273731420686667</v>
       </c>
       <c r="R6">
-        <v>0.8371430963221415</v>
+        <v>7.642388524119999</v>
       </c>
       <c r="S6">
-        <v>0.0005200504278981883</v>
+        <v>0.0006575515211494406</v>
       </c>
       <c r="T6">
-        <v>0.0005200504278981883</v>
+        <v>0.0006911602047499704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>12.2770827323846</v>
+        <v>0.08457633333333332</v>
       </c>
       <c r="H7">
-        <v>12.2770827323846</v>
+        <v>0.253729</v>
       </c>
       <c r="I7">
-        <v>0.1335726844718426</v>
+        <v>0.000881776412012686</v>
       </c>
       <c r="J7">
-        <v>0.1335726844718426</v>
+        <v>0.001044688369071241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.64741635977894</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N7">
-        <v>4.64741635977894</v>
+        <v>0.33124</v>
       </c>
       <c r="O7">
-        <v>0.2653596395580149</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P7">
-        <v>0.2653596395580149</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q7">
-        <v>57.05671514084371</v>
+        <v>0.009338354884444443</v>
       </c>
       <c r="R7">
-        <v>57.05671514084371</v>
+        <v>0.08404519395999999</v>
       </c>
       <c r="S7">
-        <v>0.03544479940624461</v>
+        <v>4.820835350037487E-06</v>
       </c>
       <c r="T7">
-        <v>0.03544479940624461</v>
+        <v>7.600855842687391E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>11.1428333172091</v>
+        <v>0.08457633333333332</v>
       </c>
       <c r="H8">
-        <v>11.1428333172091</v>
+        <v>0.253729</v>
       </c>
       <c r="I8">
-        <v>0.1212322333607681</v>
+        <v>0.000881776412012686</v>
       </c>
       <c r="J8">
-        <v>0.1212322333607681</v>
+        <v>0.001044688369071241</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>12.7980480955388</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N8">
-        <v>12.7980480955388</v>
+        <v>0.163725</v>
       </c>
       <c r="O8">
-        <v>0.7307469713860226</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P8">
-        <v>0.7307469713860226</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q8">
-        <v>142.6065167142142</v>
+        <v>0.004615753391666666</v>
       </c>
       <c r="R8">
-        <v>142.6065167142142</v>
+        <v>0.041541780525</v>
       </c>
       <c r="S8">
-        <v>0.08859008736274485</v>
+        <v>2.382838025857045E-06</v>
       </c>
       <c r="T8">
-        <v>0.08859008736274485</v>
+        <v>3.756943976705692E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>11.1428333172091</v>
+        <v>0.08457633333333332</v>
       </c>
       <c r="H9">
-        <v>11.1428333172091</v>
+        <v>0.253729</v>
       </c>
       <c r="I9">
-        <v>0.1212322333607681</v>
+        <v>0.000881776412012686</v>
       </c>
       <c r="J9">
-        <v>0.1212322333607681</v>
+        <v>0.001044688369071241</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0681874606997571</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N9">
-        <v>0.0681874606997571</v>
+        <v>14.911546</v>
       </c>
       <c r="O9">
-        <v>0.003893389055962381</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P9">
-        <v>0.003893389055962381</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q9">
-        <v>0.7598015089011395</v>
+        <v>0.4203879616704445</v>
       </c>
       <c r="R9">
-        <v>0.7598015089011395</v>
+        <v>3.783491655034</v>
       </c>
       <c r="S9">
-        <v>0.0004720042505966921</v>
+        <v>0.0002170212174873509</v>
       </c>
       <c r="T9">
-        <v>0.0004720042505966921</v>
+        <v>0.0003421703645018773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,433 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.1428333172091</v>
+        <v>13.24529933333333</v>
       </c>
       <c r="H10">
-        <v>11.1428333172091</v>
+        <v>39.735898</v>
       </c>
       <c r="I10">
-        <v>0.1212322333607681</v>
+        <v>0.138092916326246</v>
       </c>
       <c r="J10">
-        <v>0.1212322333607681</v>
+        <v>0.1636061722357365</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.64741635977894</v>
+        <v>15.06014</v>
       </c>
       <c r="N10">
-        <v>4.64741635977894</v>
+        <v>30.12028</v>
       </c>
       <c r="O10">
-        <v>0.2653596395580149</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P10">
-        <v>0.2653596395580149</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q10">
-        <v>51.7853858526874</v>
+        <v>199.4760623019067</v>
       </c>
       <c r="R10">
-        <v>51.7853858526874</v>
+        <v>1196.85637381144</v>
       </c>
       <c r="S10">
-        <v>0.03217014174742658</v>
+        <v>0.1029775870087338</v>
       </c>
       <c r="T10">
-        <v>0.03217014174742658</v>
+        <v>0.1082409633806303</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.2826411876508</v>
+        <v>13.24529933333333</v>
       </c>
       <c r="H11">
-        <v>25.2826411876508</v>
+        <v>39.735898</v>
       </c>
       <c r="I11">
-        <v>0.2750710675806416</v>
+        <v>0.138092916326246</v>
       </c>
       <c r="J11">
-        <v>0.2750710675806416</v>
+        <v>0.1636061722357365</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.7980480955388</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N11">
-        <v>12.7980480955388</v>
+        <v>0.33124</v>
       </c>
       <c r="O11">
-        <v>0.7307469713860226</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P11">
-        <v>0.7307469713860226</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q11">
-        <v>323.5684579018051</v>
+        <v>1.462457650391111</v>
       </c>
       <c r="R11">
-        <v>323.5684579018051</v>
+        <v>13.16211885352</v>
       </c>
       <c r="S11">
-        <v>0.2010073495504738</v>
+        <v>0.0007549796110964214</v>
       </c>
       <c r="T11">
-        <v>0.2010073495504738</v>
+        <v>0.001190352038898708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.2826411876508</v>
+        <v>13.24529933333333</v>
       </c>
       <c r="H12">
-        <v>25.2826411876508</v>
+        <v>39.735898</v>
       </c>
       <c r="I12">
-        <v>0.2750710675806416</v>
+        <v>0.138092916326246</v>
       </c>
       <c r="J12">
-        <v>0.2750710675806416</v>
+        <v>0.1636061722357365</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.0681874606997571</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N12">
-        <v>0.0681874606997571</v>
+        <v>0.163725</v>
       </c>
       <c r="O12">
-        <v>0.003893389055962381</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P12">
-        <v>0.003893389055962381</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q12">
-        <v>1.723959102368999</v>
+        <v>0.7228622111166667</v>
       </c>
       <c r="R12">
-        <v>1.723959102368999</v>
+        <v>6.50575990005</v>
       </c>
       <c r="S12">
-        <v>0.001070958684130359</v>
+        <v>0.0003731706219863592</v>
       </c>
       <c r="T12">
-        <v>0.001070958684130359</v>
+        <v>0.0005883661018255373</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.2826411876508</v>
+        <v>13.24529933333333</v>
       </c>
       <c r="H13">
-        <v>25.2826411876508</v>
+        <v>39.735898</v>
       </c>
       <c r="I13">
-        <v>0.2750710675806416</v>
+        <v>0.138092916326246</v>
       </c>
       <c r="J13">
-        <v>0.2750710675806416</v>
+        <v>0.1636061722357365</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.64741635977894</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N13">
-        <v>4.64741635977894</v>
+        <v>14.911546</v>
       </c>
       <c r="O13">
-        <v>0.2653596395580149</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P13">
-        <v>0.2653596395580149</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q13">
-        <v>117.4989602739092</v>
+        <v>65.83596343092312</v>
       </c>
       <c r="R13">
-        <v>117.4989602739092</v>
+        <v>592.5236708783081</v>
       </c>
       <c r="S13">
-        <v>0.07299275934603743</v>
+        <v>0.03398717908442942</v>
       </c>
       <c r="T13">
-        <v>0.07299275934603743</v>
+        <v>0.05358649071438194</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9276449328767991</v>
+        <v>11.50197566666667</v>
       </c>
       <c r="H14">
-        <v>0.9276449328767991</v>
+        <v>34.505927</v>
       </c>
       <c r="I14">
-        <v>0.01009262759093499</v>
+        <v>0.1199173626319091</v>
       </c>
       <c r="J14">
-        <v>0.01009262759093499</v>
+        <v>0.1420726073918286</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="N14">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="O14">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P14">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q14">
-        <v>11.87204446654014</v>
+        <v>173.2213638165933</v>
       </c>
       <c r="R14">
-        <v>11.87204446654014</v>
+        <v>1039.32818289956</v>
       </c>
       <c r="S14">
-        <v>0.007375157045402752</v>
+        <v>0.08942385295934463</v>
       </c>
       <c r="T14">
-        <v>0.007375157045402752</v>
+        <v>0.0939944727264425</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9276449328767991</v>
+        <v>11.50197566666667</v>
       </c>
       <c r="H15">
-        <v>0.9276449328767991</v>
+        <v>34.505927</v>
       </c>
       <c r="I15">
-        <v>0.01009262759093499</v>
+        <v>0.1199173626319091</v>
       </c>
       <c r="J15">
-        <v>0.01009262759093499</v>
+        <v>0.1420726073918286</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N15">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="O15">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P15">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q15">
-        <v>0.06325375240386555</v>
+        <v>1.269971473275555</v>
       </c>
       <c r="R15">
-        <v>0.06325375240386555</v>
+        <v>11.42974325948</v>
       </c>
       <c r="S15">
-        <v>3.929452580845025E-05</v>
+        <v>0.0006556104846801626</v>
       </c>
       <c r="T15">
-        <v>3.929452580845025E-05</v>
+        <v>0.001033679937434407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11.50197566666667</v>
+      </c>
+      <c r="H16">
+        <v>34.505927</v>
+      </c>
+      <c r="I16">
+        <v>0.1199173626319091</v>
+      </c>
+      <c r="J16">
+        <v>0.1420726073918286</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.163725</v>
+      </c>
+      <c r="O16">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P16">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q16">
+        <v>0.6277203220083334</v>
+      </c>
+      <c r="R16">
+        <v>5.649482898075</v>
+      </c>
+      <c r="S16">
+        <v>0.0003240545423386658</v>
+      </c>
+      <c r="T16">
+        <v>0.0005109263608152647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>11.50197566666667</v>
+      </c>
+      <c r="H17">
+        <v>34.505927</v>
+      </c>
+      <c r="I17">
+        <v>0.1199173626319091</v>
+      </c>
+      <c r="J17">
+        <v>0.1420726073918286</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N17">
+        <v>14.911546</v>
+      </c>
+      <c r="O17">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P17">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q17">
+        <v>57.17074641479356</v>
+      </c>
+      <c r="R17">
+        <v>514.536717733142</v>
+      </c>
+      <c r="S17">
+        <v>0.02951384464554566</v>
+      </c>
+      <c r="T17">
+        <v>0.04653352836713646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>26.21174933333333</v>
+      </c>
+      <c r="H18">
+        <v>78.635248</v>
+      </c>
+      <c r="I18">
+        <v>0.2732786037038248</v>
+      </c>
+      <c r="J18">
+        <v>0.3237679925614831</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15.06014</v>
+      </c>
+      <c r="N18">
+        <v>30.12028</v>
+      </c>
+      <c r="O18">
+        <v>0.7457123055135437</v>
+      </c>
+      <c r="P18">
+        <v>0.6615946201874847</v>
+      </c>
+      <c r="Q18">
+        <v>394.7526146049067</v>
+      </c>
+      <c r="R18">
+        <v>2368.51568762944</v>
+      </c>
+      <c r="S18">
+        <v>0.2037872176155012</v>
+      </c>
+      <c r="T18">
+        <v>0.2142031620675788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>26.21174933333333</v>
+      </c>
+      <c r="H19">
+        <v>78.635248</v>
+      </c>
+      <c r="I19">
+        <v>0.2732786037038248</v>
+      </c>
+      <c r="J19">
+        <v>0.3237679925614831</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1104133333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.33124</v>
+      </c>
+      <c r="O19">
+        <v>0.005467185654279137</v>
+      </c>
+      <c r="P19">
+        <v>0.007275715962497773</v>
+      </c>
+      <c r="Q19">
+        <v>2.894126616391111</v>
+      </c>
+      <c r="R19">
+        <v>26.04713954752</v>
+      </c>
+      <c r="S19">
+        <v>0.001494064861790984</v>
+      </c>
+      <c r="T19">
+        <v>0.002355643951625443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>26.21174933333333</v>
+      </c>
+      <c r="H20">
+        <v>78.635248</v>
+      </c>
+      <c r="I20">
+        <v>0.2732786037038248</v>
+      </c>
+      <c r="J20">
+        <v>0.3237679925614831</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.163725</v>
+      </c>
+      <c r="O20">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P20">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q20">
+        <v>1.430506219866667</v>
+      </c>
+      <c r="R20">
+        <v>12.8745559788</v>
+      </c>
+      <c r="S20">
+        <v>0.0007384849942541026</v>
+      </c>
+      <c r="T20">
+        <v>0.00116434550772816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>26.21174933333333</v>
+      </c>
+      <c r="H21">
+        <v>78.635248</v>
+      </c>
+      <c r="I21">
+        <v>0.2732786037038248</v>
+      </c>
+      <c r="J21">
+        <v>0.3237679925614831</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N21">
+        <v>14.911546</v>
+      </c>
+      <c r="O21">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P21">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q21">
+        <v>130.2859019748231</v>
+      </c>
+      <c r="R21">
+        <v>1172.573117773408</v>
+      </c>
+      <c r="S21">
+        <v>0.06725883623227843</v>
+      </c>
+      <c r="T21">
+        <v>0.1060448410345507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.9276449328767991</v>
-      </c>
-      <c r="H16">
-        <v>0.9276449328767991</v>
-      </c>
-      <c r="I16">
-        <v>0.01009262759093499</v>
-      </c>
-      <c r="J16">
-        <v>0.01009262759093499</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>4.64741635977894</v>
-      </c>
-      <c r="N16">
-        <v>4.64741635977894</v>
-      </c>
-      <c r="O16">
-        <v>0.2653596395580149</v>
-      </c>
-      <c r="P16">
-        <v>0.2653596395580149</v>
-      </c>
-      <c r="Q16">
-        <v>4.311152237117672</v>
-      </c>
-      <c r="R16">
-        <v>4.311152237117672</v>
-      </c>
-      <c r="S16">
-        <v>0.002678176019723785</v>
-      </c>
-      <c r="T16">
-        <v>0.002678176019723785</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.1082465</v>
+      </c>
+      <c r="H22">
+        <v>2.216493</v>
+      </c>
+      <c r="I22">
+        <v>0.01155436259626157</v>
+      </c>
+      <c r="J22">
+        <v>0.009126053613216547</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.06014</v>
+      </c>
+      <c r="N22">
+        <v>30.12028</v>
+      </c>
+      <c r="O22">
+        <v>0.7457123055135437</v>
+      </c>
+      <c r="P22">
+        <v>0.6615946201874847</v>
+      </c>
+      <c r="Q22">
+        <v>16.69034744451</v>
+      </c>
+      <c r="R22">
+        <v>66.76138977804</v>
+      </c>
+      <c r="S22">
+        <v>0.00861623037039767</v>
+      </c>
+      <c r="T22">
+        <v>0.006037747974046624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.1082465</v>
+      </c>
+      <c r="H23">
+        <v>2.216493</v>
+      </c>
+      <c r="I23">
+        <v>0.01155436259626157</v>
+      </c>
+      <c r="J23">
+        <v>0.009126053613216547</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.1104133333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.33124</v>
+      </c>
+      <c r="O23">
+        <v>0.005467185654279137</v>
+      </c>
+      <c r="P23">
+        <v>0.007275715962497773</v>
+      </c>
+      <c r="Q23">
+        <v>0.12236519022</v>
+      </c>
+      <c r="R23">
+        <v>0.7341911413199999</v>
+      </c>
+      <c r="S23">
+        <v>6.31698454306207E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.639857394829011E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.1082465</v>
+      </c>
+      <c r="H24">
+        <v>2.216493</v>
+      </c>
+      <c r="I24">
+        <v>0.01155436259626157</v>
+      </c>
+      <c r="J24">
+        <v>0.009126053613216547</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.163725</v>
+      </c>
+      <c r="O24">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P24">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q24">
+        <v>0.0604825527375</v>
+      </c>
+      <c r="R24">
+        <v>0.362895316425</v>
+      </c>
+      <c r="S24">
+        <v>3.122353261420232E-05</v>
+      </c>
+      <c r="T24">
+        <v>3.281942555151492E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.1082465</v>
+      </c>
+      <c r="H25">
+        <v>2.216493</v>
+      </c>
+      <c r="I25">
+        <v>0.01155436259626157</v>
+      </c>
+      <c r="J25">
+        <v>0.009126053613216547</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N25">
+        <v>14.911546</v>
+      </c>
+      <c r="O25">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P25">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q25">
+        <v>5.508556221363</v>
+      </c>
+      <c r="R25">
+        <v>33.051337328178</v>
+      </c>
+      <c r="S25">
+        <v>0.002843738847819076</v>
+      </c>
+      <c r="T25">
+        <v>0.002989087639670118</v>
       </c>
     </row>
   </sheetData>
